--- a/biology/Zoologie/Croisé_(chien)/Croisé_(chien).xlsx
+++ b/biology/Zoologie/Croisé_(chien)/Croisé_(chien).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Crois%C3%A9_(chien)</t>
+          <t>Croisé_(chien)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On appelle croisé ou bâtard, un chien domestique qui n'est conforme à aucun standard (aspect physique ou généalogie) établi par un club de race canine. Il peut être issu d'une reproduction involontaire (on parle alors couramment de  « bâtard »[1]) comme c'est le cas de nombreux chiens de compagnie, ou d'un croisement délibéré dans le but de combiner les caractéristiques des deux parents. Ces croisements volontaires sont anciens et courants dans le milieu des chiens d'attelage et de course (Alaskan Husky, Greyster, Eurohound, etc...) ou chez les lévriers (Lurcher, Long Dog, etc...) mais ils se font aujourd'hui de plus en plus nombreux pour d'autres types de chiens avec l'apparition des designer dogs (Pomsky, Labradoodle, Cockapoo, etc...). Réputé plus rustique, le chien croisé bénéficie de l'effet d'hétérosis. Les études vétérinaires montrent en effet que les chiens croisés ont une espérance de vie supérieure aux chiens de race[2],[3], qu'ils vivent en moyenne en meilleure santé[4] et qu'ils ont un risque très significativement moindre de développer une maladie génétique[5]. Elles montrent également que les chiens croisés ont en moyenne de meilleures aptitudes intellectuelles[6] en raison notamment de meilleures capacités de résolution de problèmes et d'une plus grande performance de construction visio-spatiale[7].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On appelle croisé ou bâtard, un chien domestique qui n'est conforme à aucun standard (aspect physique ou généalogie) établi par un club de race canine. Il peut être issu d'une reproduction involontaire (on parle alors couramment de  « bâtard ») comme c'est le cas de nombreux chiens de compagnie, ou d'un croisement délibéré dans le but de combiner les caractéristiques des deux parents. Ces croisements volontaires sont anciens et courants dans le milieu des chiens d'attelage et de course (Alaskan Husky, Greyster, Eurohound, etc...) ou chez les lévriers (Lurcher, Long Dog, etc...) mais ils se font aujourd'hui de plus en plus nombreux pour d'autres types de chiens avec l'apparition des designer dogs (Pomsky, Labradoodle, Cockapoo, etc...). Réputé plus rustique, le chien croisé bénéficie de l'effet d'hétérosis. Les études vétérinaires montrent en effet que les chiens croisés ont une espérance de vie supérieure aux chiens de race qu'ils vivent en moyenne en meilleure santé et qu'ils ont un risque très significativement moindre de développer une maladie génétique. Elles montrent également que les chiens croisés ont en moyenne de meilleures aptitudes intellectuelles en raison notamment de meilleures capacités de résolution de problèmes et d'une plus grande performance de construction visio-spatiale.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Crois%C3%A9_(chien)</t>
+          <t>Croisé_(chien)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,13 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Croisé, bâtard ou corniaud
-Dans les pays francophones le terme « croisé » est généralement préféré à « bâtard » par les personnes qui veulent éviter les connotations négatives associées à ce dernier terme[8]. En allemand, c'est également la notion de mélange qui est utilisée (Mischlingshund). Toutefois, lorsque le terme de croisé est utilisé pour des chiens dont aucun parent ne répond à un standard ou qui ne répondent pas à une logique délibérée de sélection, il s'agit techniquement d'un abus de langage. L'affirmation que ces chiens doivent être un mélange de races définies peut provenir d'une mauvaise compréhension des origines de races de chien. Les races dites pures ont été, pour la plupart, créées artificiellement par sélection humaine dans le but d'isoler certaines caractéristiques physiques ou comportementales. Les chiens qui n'appartiennent pas à une race ne sont donc pas nécessairement un mélange de races définies[9]. Par conséquent, pour les experts et les amateurs de ces chiens n'ayant jamais été standardisés, « bâtard » ou  « corniaud » sont encore les termes les plus appropriés[10].
-Termes régionaux et argotiques
-Aux États-Unis, les termes cur, tyke, mutt et mongrel (bâtard) sont utilisés, parfois de manière péjorative, mutt (cabot) peut l’être de manière affectueuse. Certains registres américains et des clubs de chien qui acceptent les chiens de race mixte utilisent la description de race All American. Au Royaume-Uni, le terme mongrel, bâtard, est le mot technique officiel.
-En français, on parle de chien bâtard, corniaud[11], cabot[12].
-Certains noms se basent sur la géographie, le comportement, ou la nourriture. À Hawaï, on parle de chien poi, même s’ils n’ont rien en commun avec cette race éteinte de l'île[13]. Aux Bahamas et dans les îles Turques-et-Caïques, le terme commun est chien potcake (en référence aux restes de table dont ils sont nourris). Aux Philippines, les chiens errants de race mixte sont souvent appelés askal, une contraction en tagalog dérivée de Asong Kalye (« chien de rue »). À Porto Rico, ils sont connus comme des chiens Sato ; au Chili et en Bolivie, ils sont appelés quiltros. Au Costa Rica, le terme courant est zaguate, provenant du nahuatl zahuatl, qui fait référence à la maladie de la gale. Dans la région rurale du sud des États-Unis, un petit chien de chasse est désigné par feist.
-Les termes d'argot sont également fréquents. Aux États-Unis, Heinz 57, Heinz ou Heinz Hound est souvent utilisé pour les chiens d'ascendance incertaine, en référence à « 57 variétés », slogan de l'entreprise Heinz. En Australie, bitsa (ou bitzer) est parfois utilisé, dans le sens "morceaux de ci, de là". Au Brésil et en République dominicaine, le nom utilisé est vira-lata (« renverse-benne »), en raison des chiens errants qui renversent les poubelles pour trouver de la nourriture. À Terre-Neuve, un petit chien de race mixte est connu comme un cracky, d'où l'expression « hardi comme un cracky » désignant familièrement une personne à la langue acérée.
+          <t>Croisé, bâtard ou corniaud</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les pays francophones le terme « croisé » est généralement préféré à « bâtard » par les personnes qui veulent éviter les connotations négatives associées à ce dernier terme. En allemand, c'est également la notion de mélange qui est utilisée (Mischlingshund). Toutefois, lorsque le terme de croisé est utilisé pour des chiens dont aucun parent ne répond à un standard ou qui ne répondent pas à une logique délibérée de sélection, il s'agit techniquement d'un abus de langage. L'affirmation que ces chiens doivent être un mélange de races définies peut provenir d'une mauvaise compréhension des origines de races de chien. Les races dites pures ont été, pour la plupart, créées artificiellement par sélection humaine dans le but d'isoler certaines caractéristiques physiques ou comportementales. Les chiens qui n'appartiennent pas à une race ne sont donc pas nécessairement un mélange de races définies. Par conséquent, pour les experts et les amateurs de ces chiens n'ayant jamais été standardisés, « bâtard » ou  « corniaud » sont encore les termes les plus appropriés.
 </t>
         </is>
       </c>
@@ -530,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Crois%C3%A9_(chien)</t>
+          <t>Croisé_(chien)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,12 +557,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Apparence</t>
+          <t>Terminologie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Quand les races se mélangent, leur progéniture manifeste une grande variété d'aspects : certains peuvent ressembler de très près à l'une des races qui les composent, tandis que d'autres présentent des caractéristiques des deux races. Cependant, si on continue à croiser les générations suivantes ensemble, elles vont tendre vers un aspect plus ou moins similaire.
+          <t>Termes régionaux et argotiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aux États-Unis, les termes cur, tyke, mutt et mongrel (bâtard) sont utilisés, parfois de manière péjorative, mutt (cabot) peut l’être de manière affectueuse. Certains registres américains et des clubs de chien qui acceptent les chiens de race mixte utilisent la description de race All American. Au Royaume-Uni, le terme mongrel, bâtard, est le mot technique officiel.
+En français, on parle de chien bâtard, corniaud, cabot.
+Certains noms se basent sur la géographie, le comportement, ou la nourriture. À Hawaï, on parle de chien poi, même s’ils n’ont rien en commun avec cette race éteinte de l'île. Aux Bahamas et dans les îles Turques-et-Caïques, le terme commun est chien potcake (en référence aux restes de table dont ils sont nourris). Aux Philippines, les chiens errants de race mixte sont souvent appelés askal, une contraction en tagalog dérivée de Asong Kalye (« chien de rue »). À Porto Rico, ils sont connus comme des chiens Sato ; au Chili et en Bolivie, ils sont appelés quiltros. Au Costa Rica, le terme courant est zaguate, provenant du nahuatl zahuatl, qui fait référence à la maladie de la gale. Dans la région rurale du sud des États-Unis, un petit chien de chasse est désigné par feist.
+Les termes d'argot sont également fréquents. Aux États-Unis, Heinz 57, Heinz ou Heinz Hound est souvent utilisé pour les chiens d'ascendance incertaine, en référence à « 57 variétés », slogan de l'entreprise Heinz. En Australie, bitsa (ou bitzer) est parfois utilisé, dans le sens "morceaux de ci, de là". Au Brésil et en République dominicaine, le nom utilisé est vira-lata (« renverse-benne »), en raison des chiens errants qui renversent les poubelles pour trouver de la nourriture. À Terre-Neuve, un petit chien de race mixte est connu comme un cracky, d'où l'expression « hardi comme un cracky » désignant familièrement une personne à la langue acérée.
 </t>
         </is>
       </c>
@@ -561,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Crois%C3%A9_(chien)</t>
+          <t>Croisé_(chien)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,14 +597,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Espérance de vie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans une étude nord-américaine de 1997, l'effet de la race sur l'espérance de vie du chien a été analysé à l'aide des données de mortalité de 23 535 chiens de compagnie. Les données ont été obtenues auprès d'hôpitaux d'enseignement vétérinaire en Amérique du Nord. L'âge médian au moment du décès a été déterminé pour les chiens de race et croisés de différents poids. L'étude concluait qu'à poids égal, les chiens croisés vivaient en moyenne 1,8 année de plus que les chiens de races[14].
-Une étude de 2013 portant sur 102 609 chiens dans le centre et le sud-est de l'Angleterre a constaté que les chiens croisés vivaient en moyenne 1,2 année de plus que les chiens de races[15].
-En 2018, en France, une étude de l'Université Paul-Sabatier de Toulouse portant sur dix années aboutissait à des conclusions similaires, à savoir une espérance de vie supérieure pour les chiens croisés[3].
+          <t>Apparence</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quand les races se mélangent, leur progéniture manifeste une grande variété d'aspects : certains peuvent ressembler de très près à l'une des races qui les composent, tandis que d'autres présentent des caractéristiques des deux races. Cependant, si on continue à croiser les générations suivantes ensemble, elles vont tendre vers un aspect plus ou moins similaire.
 </t>
         </is>
       </c>
@@ -594,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Crois%C3%A9_(chien)</t>
+          <t>Croisé_(chien)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,10 +630,47 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Espérance de vie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans une étude nord-américaine de 1997, l'effet de la race sur l'espérance de vie du chien a été analysé à l'aide des données de mortalité de 23 535 chiens de compagnie. Les données ont été obtenues auprès d'hôpitaux d'enseignement vétérinaire en Amérique du Nord. L'âge médian au moment du décès a été déterminé pour les chiens de race et croisés de différents poids. L'étude concluait qu'à poids égal, les chiens croisés vivaient en moyenne 1,8 année de plus que les chiens de races.
+Une étude de 2013 portant sur 102 609 chiens dans le centre et le sud-est de l'Angleterre a constaté que les chiens croisés vivaient en moyenne 1,2 année de plus que les chiens de races.
+En 2018, en France, une étude de l'Université Paul-Sabatier de Toulouse portant sur dix années aboutissait à des conclusions similaires, à savoir une espérance de vie supérieure pour les chiens croisés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Croisé_(chien)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crois%C3%A9_(chien)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Maladies génétiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La théorie de la vigueur hybride suggère qu'en tant que groupe, les chiens d'ascendances variées seront en meilleure santé que leurs homologues de race pure. Chez les chiens de race, chiens d'apparence très similaire intentionnellement, la reproduction sur plusieurs générations produit des animaux qui portent souvent les mêmes allèles, dont certains sont nuisibles. Si la population de la race est petite, sa diversité génétique peut devenir très faible au bout d'un certain temps.
 Quand les humains sélectionnent certains chiens pour de nouvelles races, ils isolent artificiellement ce groupe de gènes et causent plus de copies de ce gène que celles qui auraient eu lieu naturellement. Dans un premier temps, la population sera plus fragile en raison de l'absence de diversité génétique. Si la race de chien est très populaire, la diversité augmentera en raison de mutations. C'est pourquoi certaines des « anciennes » races sont stables. Un problème a lieu quand certains traits trouvés dans le standard de la race sont associés à des troubles génétiques. La force sélective artificielle favorise la duplication de la maladie génétique, car elle est liée à un trait physique souhaité.
@@ -624,39 +682,13 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Crois%C3%A9_(chien)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Crois%C3%A9_(chien)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Performances intellectuelles et apprentissage</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-    </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Crois%C3%A9_(chien)</t>
+          <t>Croisé_(chien)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -671,26 +703,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Chiens d'attelage et de course</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Les mushers et amateurs de lévriers font régulièrement des croisements afin d'obtenir des chiens plus performants pour les courses. Les principales lignées de chiens croisés sont les suivantes :
-Alaskan Husky
-L'Alaskan Husky ou Alaskan, est la plus ancienne lignée de chiens d'attelage croisée, dont la naissance remonte au XIXe siècle et est depuis en perpétuelle amélioration. Au sein de ces derniers on peut distinguer une lignée honorifique, le Seppala Siberian Sleddog, descendante du chien Togo. 
-Eurohound
-L'Eurohound est une lignée d'origine scandinave issue de croisements entre des Alaskan Huskies, des Pointers anglais et des Braques allemands à poil court.
-Greyster
-Le Greyster désigne un croisement entre un braque allemand à poil court et un lévrier greyhound.
-Autres chiens d'attelage
-Chinook
-Mackenzie River Husky
-Croisements de lévriers
-Lurcher
-Lévriers croisés ou Long Dog</t>
-        </is>
-      </c>
+          <t>Performances intellectuelles et apprentissage</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -698,7 +716,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Crois%C3%A9_(chien)</t>
+          <t>Croisé_(chien)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -713,12 +731,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Designer dogs</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On appelle designer dogs des chiens croisés volontairement avec pour objectif d'en faire exclusivement des chiens de compagnie ou d'assistance. Ne sont ainsi pas considérés comme des designer dogs les chiens croisés de course ou d'attelage ainsi que plus largement les autres chiens de sport ou de travail.
+          <t>Chiens d'attelage et de course</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mushers et amateurs de lévriers font régulièrement des croisements afin d'obtenir des chiens plus performants pour les courses. Les principales lignées de chiens croisés sont les suivantes :
 </t>
         </is>
       </c>
@@ -729,7 +749,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Crois%C3%A9_(chien)</t>
+          <t>Croisé_(chien)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -744,13 +764,18 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Autres sports canins</t>
+          <t>Chiens d'attelage et de course</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les chiens croisés sont très présents dans l'ensemble des sports canins. On les retrouve ainsi dans l'obéissance, l'agilité, la flyball, le frisbee bien qu'ils furent exclu des concours d'obéissance jusque dans les années 1980. La plupart des concours d'agilité et les organisations de flyball ont toujours été ouverts aux chiens croisés.
-S'ils sont logiquement exclus des concours organisés par les clubs de race canine, le Kennel Club (Royaume-Uni) organise en revanche un concours intitulé Scruffts ouvert uniquement aux chiens croisés qui y sont jugés sur leur caractère, leur robustesse, leur santé et leur tempérament.
+          <t>Alaskan Husky</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Alaskan Husky ou Alaskan, est la plus ancienne lignée de chiens d'attelage croisée, dont la naissance remonte au XIXe siècle et est depuis en perpétuelle amélioration. Au sein de ces derniers on peut distinguer une lignée honorifique, le Seppala Siberian Sleddog, descendante du chien Togo. 
 </t>
         </is>
       </c>
@@ -761,7 +786,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Crois%C3%A9_(chien)</t>
+          <t>Croisé_(chien)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -776,13 +801,233 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>Chiens d'attelage et de course</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Eurohound</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Eurohound est une lignée d'origine scandinave issue de croisements entre des Alaskan Huskies, des Pointers anglais et des Braques allemands à poil court.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Croisé_(chien)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crois%C3%A9_(chien)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Chiens d'attelage et de course</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Greyster</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Greyster désigne un croisement entre un braque allemand à poil court et un lévrier greyhound.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Croisé_(chien)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crois%C3%A9_(chien)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Chiens d'attelage et de course</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Autres chiens d'attelage</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Chinook
+Mackenzie River Husky</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Croisé_(chien)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crois%C3%A9_(chien)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Chiens d'attelage et de course</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Croisements de lévriers</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Lurcher
+Lévriers croisés ou Long Dog</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Croisé_(chien)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crois%C3%A9_(chien)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Designer dogs</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On appelle designer dogs des chiens croisés volontairement avec pour objectif d'en faire exclusivement des chiens de compagnie ou d'assistance. Ne sont ainsi pas considérés comme des designer dogs les chiens croisés de course ou d'attelage ainsi que plus largement les autres chiens de sport ou de travail.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Croisé_(chien)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crois%C3%A9_(chien)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Autres sports canins</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les chiens croisés sont très présents dans l'ensemble des sports canins. On les retrouve ainsi dans l'obéissance, l'agilité, la flyball, le frisbee bien qu'ils furent exclu des concours d'obéissance jusque dans les années 1980. La plupart des concours d'agilité et les organisations de flyball ont toujours été ouverts aux chiens croisés.
+S'ils sont logiquement exclus des concours organisés par les clubs de race canine, le Kennel Club (Royaume-Uni) organise en revanche un concours intitulé Scruffts ouvert uniquement aux chiens croisés qui y sont jugés sur leur caractère, leur robustesse, leur santé et leur tempérament.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Croisé_(chien)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crois%C3%A9_(chien)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Traduction
-(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Mongrel » (voir la liste des auteurs).</t>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Traduction</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Mongrel » (voir la liste des auteurs).</t>
         </is>
       </c>
     </row>
